--- a/issues.xlsx
+++ b/issues.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4885\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56B9EF36-158D-4AA6-B431-423722031FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="5" r:id="rId1"/>
     <sheet name="Equi Class, Dataset, and BVs" sheetId="6" r:id="rId2"/>
-    <sheet name="Test Groups" sheetId="12" r:id="rId3"/>
-    <sheet name="Localization Next CR's" sheetId="11" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId3"/>
+    <sheet name="Test Groups" sheetId="12" r:id="rId4"/>
+    <sheet name="Localization Next CR's" sheetId="11" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="248">
   <si>
     <t xml:space="preserve">Input/Output Variables </t>
   </si>
@@ -400,9 +400,6 @@
     <t>ch&gt;=15 with lower case &gt;=1, num ch &gt;=1</t>
   </si>
   <si>
-    <t>Valid Data Set Repository Creation</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (Format) Zain35145@gmail.com</t>
   </si>
   <si>
@@ -451,36 +448,6 @@
     <t>Mainitem</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6,21</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,7,8,9,10,11,12,13,14,15,16,21</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,7,8,9,10,11,12,13,14,15,18,19,21</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,7,8,9,10,11,12,13,16,17,21</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,7,8,9,10,11,20,21</t>
-  </si>
-  <si>
-    <t>Start&gt; Open Github&gt; Login&gt; Create Repository&gt; Keep Using Master Branch&gt; End</t>
-  </si>
-  <si>
-    <t>Start&gt; Open Github&gt; Login&gt; Create Repository&gt; Select New Branch&gt; Write Name&gt; Enter&gt; Replica Created&gt; Go back to master&gt; No&gt;Stay on new branch&gt;Download new files&gt;No &gt; Stay here&gt; end</t>
-  </si>
-  <si>
-    <t>Start&gt; Open Github&gt; Login&gt; Create Repository&gt; Select New Branch&gt; Write Name&gt; Enter&gt; Replica Created&gt; Go back to master&gt; No&gt;Stay on new branch&gt;Download new files&gt;Yes&gt;Click on "Code" &gt;Select Zip File Download&gt; End</t>
-  </si>
-  <si>
-    <t>Start&gt; Open Github&gt; Login&gt; Create Repository&gt; Select New Branch&gt; Write Name&gt; Enter&gt; Replica Created&gt; Go back to master&gt; No&gt;Stay on new branch&gt;Create or Upload File? &gt; Yes&gt;Select or Write File&gt;Click Upload&gt; end</t>
-  </si>
-  <si>
-    <t>Start&gt; Open Github&gt; Login&gt; Create Repository&gt; Select New Branch&gt; Write Name&gt; Enter&gt; Replica Created&gt; Go back to master&gt; Yes&gt;Click on dropdown&gt;Select main&gt; end</t>
-  </si>
-  <si>
     <t>Title Name Field</t>
   </si>
   <si>
@@ -569,16 +536,247 @@
   </si>
   <si>
     <t>0001/12/31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dataset for Creation</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,35</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,7,8,9,10,12</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,7,8,9,11,12,13,15,17,19,20,21,22,23,24,35</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,7,8,9,11,12,13,15,17,19,20,21,22,23,25,26,27,35</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,7,8,9,11,12,13,14,16</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,7,8,9,11,12,13,15,16,17,18,20</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,7,8,9,11,12,13,15,17,19,20,21,22,23,25,26,28,30,</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,7,8,9,11,12,13,15,17,19,20,21,22,23,25,26,28,30,31</t>
+  </si>
+  <si>
+    <t>Start&gt; Open Github&gt;Login&gt;Create Repository&gt;Create Issue&gt;No&gt; See existing Issues&gt; end</t>
+  </si>
+  <si>
+    <t>Start&gt; Open Github&gt; login&gt; Create Repository&gt; Create Issue? &gt; Yes&gt; Click on New Issue&gt; Enter Title and Comment&gt; Preview?&gt; No&gt; Submit</t>
+  </si>
+  <si>
+    <t>Start&gt; Open Github&gt; login&gt; Create Repository&gt; Create Issue? &gt; Yes&gt; Click on New Issue&gt; Enter Title and Comment&gt; Preview?&gt; Yes&gt;Submit&gt;Assignees&gt;No?&gt;See Orther Options Proceed</t>
+  </si>
+  <si>
+    <t>Start&gt; Open Github&gt; login&gt; Create Repository&gt; Create Issue? &gt; Yes&gt; Click on New Issue&gt; Enter Title and Comment&gt; Preview?&gt; Yes&gt;Submit&gt;Assignees&gt;Yes&gt;Select people from dropdown&gt; Give Labels? &gt; No&gt;See other options &gt; Proceed</t>
+  </si>
+  <si>
+    <t>Start&gt; Open Github&gt; login&gt; Create Repository&gt; Create Issue? &gt; Yes&gt; Click on New Issue&gt; Enter Title and Comment&gt; Preview?&gt; Yes&gt;Submit&gt;Assignees&gt;Yes&gt;Select people from dropdown&gt; Give Labels? &gt; Yes&gt;add Relevant Labels&gt;Proceed&gt; Add Milestones?&gt;No&gt; See other options&gt;Close Issue?&gt; No&gt; keep Working &gt; End</t>
+  </si>
+  <si>
+    <t>Start&gt; Open Github&gt; login&gt; Create Repository&gt; Create Issue? &gt; Yes&gt; Click on New Issue&gt; Enter Title and Comment&gt; Preview?&gt; Yes&gt;Submit&gt;Assignees&gt;Yes&gt;Select people from dropdown&gt; Give Labels? &gt; Yes&gt;add Relevant Labels&gt;Proceed&gt; Add Milestones?&gt;No&gt; See other options&gt;Close Issue?&gt; Yes&gt; Resolves&gt; Close issue?&gt; No &gt; Keep Working&gt; end</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,7,8,9,11,12,13,15,17,19,20,21,32,33,34,35</t>
+  </si>
+  <si>
+    <t>Start&gt; Open Github&gt; login&gt; Create Repository&gt; Create Issue? &gt; Yes&gt; Click on New Issue&gt; Enter Title and Comment&gt; Preview?&gt; Yes&gt;Submit&gt;Assignees&gt;Yes&gt;Select people from dropdown&gt; Give Labels? &gt; Yes&gt;add Relevant Labels&gt;Proceed&gt; Add Milestones?&gt;No&gt; See other options&gt;Close Issue?&gt; Yes&gt; Resolves&gt; Close issue?&gt; Yes&gt; Reopen&gt; No&gt;Let it be closed.</t>
+  </si>
+  <si>
+    <t>Start&gt; Open Github&gt; login&gt; Create Repository&gt; Create Issue? &gt; Yes&gt; Click on New Issue&gt; Enter Title and Comment&gt; Preview?&gt; Yes&gt;Submit&gt;Assignees&gt;Yes&gt;Select people from dropdown&gt; Give Labels? &gt; Yes&gt;add Relevant Labels&gt;Proceed&gt; Add Milestones?&gt;No&gt; See other options&gt;Close Issue?&gt; Yes&gt; Resolves&gt; Close issue?&gt; Yes&gt; Reopen&gt; Yes&gt; Make Changes and Resolve&gt; end</t>
+  </si>
+  <si>
+    <t>Start&gt; Open Github&gt; login&gt; Create Repository&gt; Create Issue? &gt; Yes&gt; Click on New Issue&gt; Enter Title and Comment&gt; Preview?&gt; Yes&gt;Submit&gt;Assignees&gt;Yes&gt;Select people from dropdown&gt; Give Labels? &gt; Yes&gt;add Relevant Labels&gt;Proceed&gt; Add Milestones?&gt;Yes&gt;Give Name &gt; Description&gt; Due Date &gt; Save Changes &gt; End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Points </t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Measure the time taken for the GitHub website to load after the user opens it.</t>
+  </si>
+  <si>
+    <t>Verify that the GitHub login page is visually consistent and renders correctly in different browsers.</t>
+  </si>
+  <si>
+    <t>Validate that repository data is correctly stored in the database after the user creates a new repository.</t>
+  </si>
+  <si>
+    <t>Measure the response time for the login process, including the time to authenticate the user's credentials.</t>
+  </si>
+  <si>
+    <t>Check that the "Create Repository" form includes appropriate input fields and labels.</t>
+  </si>
+  <si>
+    <t>Evaluate the time taken to create a new repository, including the time for the repository creation API to respond.</t>
+  </si>
+  <si>
+    <t>Check that the user can create a new repository with the desired repository name.</t>
+  </si>
+  <si>
+    <t>Test that the dropdown list for selecting assignees functions correctly.</t>
+  </si>
+  <si>
+    <t>Measure the response time for the user to select assignees from the dropdown list.</t>
+  </si>
+  <si>
+    <t>Verify that the GitHub website is accessible and loads correctly when opened.</t>
+  </si>
+  <si>
+    <t>Test login with valid credentials and verify that the user can log in successfully.</t>
+  </si>
+  <si>
+    <t>Verify that the repository is successfully created, and the user can navigate to it.</t>
+  </si>
+  <si>
+    <t>Verify that the user can view existing issues for the repository.</t>
+  </si>
+  <si>
+    <t>Measure the response time for the user to create a new issue.</t>
+  </si>
+  <si>
+    <t>Verify that the user is redirected to the issues page after viewing existing issues.</t>
+  </si>
+  <si>
+    <t>Ensure that issue data is correctly stored in the database when the user creates a new issue.</t>
+  </si>
+  <si>
+    <t>Check that issue data is accurately retrieved from the database when viewing existing issues.</t>
+  </si>
+  <si>
+    <t>Test that existing login credentials still work after making changes related to repository creation and issue functionality.</t>
+  </si>
+  <si>
+    <t>Verify that previous repositories remain unaffected by the changes.</t>
+  </si>
+  <si>
+    <t>Check that the user can access the issues page and view existing issues.</t>
+  </si>
+  <si>
+    <t>Check that the user can enter a title and comment for the new issue.</t>
+  </si>
+  <si>
+    <t>Verify that the user can preview the issue before submitting.</t>
+  </si>
+  <si>
+    <t>Verify that the "New Issue" page is displayed.</t>
+  </si>
+  <si>
+    <t>Measure the time taken for the user to enter the issue title and comment.</t>
+  </si>
+  <si>
+    <t>Evaluate the time taken for the user to submit the new issue.</t>
+  </si>
+  <si>
+    <t>Verify that the user can create a new issue with relevant input fields for title and comment.</t>
+  </si>
+  <si>
+    <t>Check that the "New Issue" page includes options for previewing the issue.</t>
+  </si>
+  <si>
+    <t>Check that the user can create and submit a new issue without any issues or errors.</t>
+  </si>
+  <si>
+    <t>Verify that the user can preview the issue before submitting and selects "Yes" for preview.</t>
+  </si>
+  <si>
+    <t>Check that the user can submit the new issue after confirming the preview.</t>
+  </si>
+  <si>
+    <t>Test that the user is prompted to create an issue.</t>
+  </si>
+  <si>
+    <t>Evaluate the time taken for the user to preview the issue and submit it.</t>
+  </si>
+  <si>
+    <t>Check that the "New Issue" page includes options for previewing the issue and selecting "Yes" for preview.</t>
+  </si>
+  <si>
+    <t>Verify that the user can select people from the assignees' dropdown list.</t>
+  </si>
+  <si>
+    <t>Verify that the user can add relevant labels to the issue.</t>
+  </si>
+  <si>
+    <t>Measure the response time for the user to add relevant labels to the issue.</t>
+  </si>
+  <si>
+    <t>Test that the user can add relevant labels to the issue.</t>
+  </si>
+  <si>
+    <t>Check that the user can choose to keep the issue open and continue working.</t>
+  </si>
+  <si>
+    <t>Verify that user can close the issue through button provided.</t>
+  </si>
+  <si>
+    <t>Verify that the assignees selected by the user are correctly associated with the issue in the database.</t>
+  </si>
+  <si>
+    <t>Ensure that the relevant labels added by the user are correctly associated with the issue in the database.</t>
+  </si>
+  <si>
+    <t>Verify that the user can choose  when asked about closing the issue.</t>
+  </si>
+  <si>
+    <t>Check that the user can choose option when asked to reopen the closed issue and reopens it.</t>
+  </si>
+  <si>
+    <t>Measure the response time for the user to choose "Reopen" and reopen the closed issue.</t>
+  </si>
+  <si>
+    <t>Test that the user can close and reopen the issue without any issues or errors.</t>
+  </si>
+  <si>
+    <t>Verify that the user can make changes to the reopened issue and then resolves it again.</t>
+  </si>
+  <si>
+    <t>Measure the response time for the user to make changes to the reopened issue and resolve it again.</t>
+  </si>
+  <si>
+    <t>Verify that the user can provide a name, description, and due date for the milestone.</t>
+  </si>
+  <si>
+    <t>Check that the user can save the changes made to the milestone and successfully create it.</t>
+  </si>
+  <si>
+    <t>Measure the response time for the user to provide the milestone name, description, and due date and save the changes.</t>
+  </si>
+  <si>
+    <t>Test that the user can save the changes made to the milestone and successfully create it.</t>
+  </si>
+  <si>
+    <t>Check that the user can create and submit a new issue with assignees, labels, and milestones without any issues or errors.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,8 +808,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,6 +839,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,7 +986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -848,6 +1072,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -884,6 +1113,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -911,23 +1146,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -947,9 +1184,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -987,9 +1224,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1024,7 +1261,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1059,7 +1296,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1232,7 +1469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1266,12 +1503,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
-        <v>139</v>
+      <c r="A6" s="37" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -1283,11 +1520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView topLeftCell="A73" zoomScale="106" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,7 +1555,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="40" t="s">
         <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1327,7 +1564,7 @@
       <c r="C2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="55" t="s">
         <v>87</v>
       </c>
       <c r="E2" s="12" t="s">
@@ -1346,14 +1583,14 @@
       <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
@@ -1370,7 +1607,7 @@
       <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="1" t="s">
         <v>110</v>
       </c>
@@ -1379,7 +1616,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="1" t="s">
         <v>113</v>
       </c>
@@ -1388,21 +1625,21 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="40" t="s">
         <v>96</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1411,7 +1648,7 @@
       <c r="C8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="57" t="s">
         <v>87</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -1425,14 +1662,14 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="53"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="12" t="s">
         <v>3</v>
       </c>
@@ -1444,7 +1681,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="1" t="s">
         <v>105</v>
       </c>
@@ -1453,301 +1690,301 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
+      <c r="A13" s="40"/>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
-        <v>152</v>
+      <c r="A17" s="44" t="s">
+        <v>141</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="55" t="s">
         <v>87</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>2</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
+        <v>149</v>
+      </c>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
       <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="51"/>
+      <c r="D18" s="56"/>
       <c r="E18" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
-        <v>154</v>
+      <c r="A23" s="44" t="s">
+        <v>143</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="55" t="s">
         <v>87</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
+        <v>149</v>
+      </c>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
       <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="51"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
+        <v>150</v>
+      </c>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
       <c r="I24" s="19"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="B29" s="61" t="s">
-        <v>177</v>
+      <c r="A29" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>166</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="55" t="s">
         <v>87</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="I29" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="62"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="51"/>
+        <v>152</v>
+      </c>
+      <c r="D30" s="56"/>
       <c r="E30" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="I30" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D31" s="49"/>
+        <v>153</v>
+      </c>
+      <c r="D31" s="54"/>
       <c r="E31" s="5"/>
       <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+      <c r="A32" s="41"/>
       <c r="B32" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D32" s="49"/>
+        <v>154</v>
+      </c>
+      <c r="D32" s="54"/>
       <c r="E32" s="5"/>
       <c r="F32" s="26"/>
       <c r="I32" s="19"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="49"/>
+        <v>155</v>
+      </c>
+      <c r="D33" s="54"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="49"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="D35" s="49"/>
+      <c r="A35" s="41"/>
+      <c r="D35" s="54"/>
       <c r="E35" s="5"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="D36" s="49"/>
+      <c r="A36" s="41"/>
+      <c r="D36" s="54"/>
       <c r="E36" s="5"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
+      <c r="A37" s="41"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
+      <c r="A38" s="41"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
+      <c r="A39" s="41"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
+      <c r="A40" s="41"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
+      <c r="A41" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
@@ -1761,25 +1998,25 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="44" t="s">
         <v>109</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C44" s="1">
         <v>12334</v>
       </c>
-      <c r="D44" s="49"/>
+      <c r="D44" s="54"/>
       <c r="E44" s="5"/>
       <c r="F44" s="18"/>
       <c r="G44" s="19"/>
@@ -1788,14 +2025,14 @@
       <c r="J44" s="20"/>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="49"/>
+      <c r="D45" s="54"/>
       <c r="E45" s="5"/>
       <c r="F45" s="18"/>
       <c r="G45" s="19"/>
@@ -1804,21 +2041,21 @@
       <c r="J45" s="20"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
       <c r="I46" s="19"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C47" s="1"/>
       <c r="G47" s="19"/>
@@ -1826,7 +2063,7 @@
       <c r="I47" s="19"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="G48" s="19"/>
@@ -1834,9 +2071,9 @@
       <c r="I48" s="19"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="47"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="50"/>
       <c r="D49" s="21"/>
       <c r="E49" s="17"/>
       <c r="F49" s="18"/>
@@ -1846,16 +2083,16 @@
       <c r="J49" s="20"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="48"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="21"/>
       <c r="E50" s="17"/>
       <c r="F50" s="18"/>
       <c r="J50" s="20"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="40" t="s">
         <v>96</v>
       </c>
       <c r="B51" s="25">
@@ -1864,67 +2101,67 @@
       <c r="C51" s="1">
         <v>12345</v>
       </c>
-      <c r="D51" s="49"/>
+      <c r="D51" s="54"/>
       <c r="E51" s="5"/>
       <c r="F51" s="18"/>
       <c r="J51" s="20"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C52" s="1">
         <v>12345678</v>
       </c>
-      <c r="D52" s="49"/>
+      <c r="D52" s="54"/>
       <c r="E52" s="5"/>
       <c r="F52" s="18"/>
       <c r="J52" s="20"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
+      <c r="A53" s="40"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="40"/>
+      <c r="B54" s="1" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
-      <c r="B54" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="C54" s="1">
         <v>1234566</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
+      <c r="A55" s="40"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
+      <c r="A56" s="40"/>
       <c r="C56" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
+      <c r="A58" s="40"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
+      <c r="A59" s="40"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
@@ -1934,166 +2171,166 @@
       <c r="C60" s="30"/>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="41" t="s">
-        <v>152</v>
+      <c r="A61" s="44" t="s">
+        <v>141</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="46"/>
+      <c r="B62" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="43"/>
-      <c r="B62" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="49"/>
+      <c r="D62" s="54"/>
       <c r="E62" s="5"/>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="43"/>
+      <c r="A63" s="46"/>
       <c r="B63" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D63" s="49"/>
+      <c r="D63" s="54"/>
       <c r="E63" s="5"/>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="43"/>
+      <c r="A64" s="46"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="49"/>
+      <c r="D64" s="54"/>
       <c r="E64" s="5"/>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="43"/>
+      <c r="A65" s="46"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="49"/>
+      <c r="D65" s="54"/>
       <c r="E65" s="5"/>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
+      <c r="A66" s="47"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="41" t="s">
-        <v>174</v>
+      <c r="A67" s="44" t="s">
+        <v>163</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="43"/>
+      <c r="A68" s="46"/>
       <c r="B68" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C68" s="25"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="43"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="1"/>
       <c r="C69" s="24"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="43"/>
+      <c r="A70" s="46"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
+      <c r="A71" s="46"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="44"/>
+      <c r="A72" s="47"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="B73" s="61">
+      <c r="A73" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" s="52">
         <v>45291</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="38"/>
-      <c r="B74" s="62"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="53"/>
       <c r="C74" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
+      <c r="A75" s="41"/>
       <c r="B75" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="38"/>
+      <c r="A76" s="41"/>
       <c r="B76" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C76" s="64">
+        <v>159</v>
+      </c>
+      <c r="C76" s="39">
         <v>36537</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="38"/>
+      <c r="A77" s="41"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="64">
+      <c r="C77" s="39">
         <v>45269</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="38"/>
+      <c r="A78" s="41"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="38"/>
+      <c r="A79" s="41"/>
       <c r="B79" s="31"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="38"/>
+      <c r="A80" s="41"/>
       <c r="C80" s="31"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="38"/>
+      <c r="A81" s="41"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="38"/>
+      <c r="A82" s="41"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="38"/>
+      <c r="A83" s="41"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="38"/>
+      <c r="A84" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -2127,10 +2364,10 @@
     <mergeCell ref="B29:B30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" display="aejwfee@##$$$%%" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F9" r:id="rId2" display="wfjejwejfefe@$$#$#$#$#$#$$#$#$#" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B52" r:id="rId3" display="reyruyrehufehuuufuwfeuhwfeh!@#$%^&amp;*" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B46" r:id="rId4" xr:uid="{8D78D381-CCEB-4D87-93B8-EB2CECCCA998}"/>
+    <hyperlink ref="F8" r:id="rId1" display="aejwfee@##$$$%%"/>
+    <hyperlink ref="F9" r:id="rId2" display="wfjejwejfefe@$$#$#$#$#$#$$#$#$#"/>
+    <hyperlink ref="B52" r:id="rId3" display="reyruyrehufehuuufuwfeuhwfeh!@#$%^&amp;*"/>
+    <hyperlink ref="B46" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
@@ -2138,26 +2375,1283 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30386CDE-FB2B-4817-BDBF-0064DF4CDD28}">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="66" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="str">
+        <f>'Test Groups'!$A$2</f>
+        <v>1,2,3,4,5,6,35</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="69"/>
+      <c r="B4" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="69"/>
+      <c r="B5" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="68" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="69"/>
+      <c r="B6" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="68"/>
+    </row>
+    <row r="7" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="69"/>
+      <c r="B7" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="68"/>
+    </row>
+    <row r="8" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="69"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+    </row>
+    <row r="9" spans="1:6" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="69"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+    </row>
+    <row r="10" spans="1:6" s="68" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="69" t="str">
+        <f>'Test Groups'!$A$3</f>
+        <v>1,2,3,4,5,7,8,9,10,12</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="69"/>
+      <c r="B11" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="69"/>
+      <c r="B12" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" s="68"/>
+    </row>
+    <row r="13" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="69"/>
+      <c r="B13" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="69"/>
+      <c r="B14" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="68"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="69"/>
+      <c r="B15" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="68" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="68" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="str">
+        <f>'Test Groups'!$A$4</f>
+        <v>1,2,3,4,5,7,8,9,11,12,13,14,16</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" s="68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="69"/>
+      <c r="B21" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="69"/>
+      <c r="B22" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22" s="68"/>
+    </row>
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="69"/>
+      <c r="B23" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+    </row>
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="69"/>
+      <c r="B24" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="68"/>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="69"/>
+      <c r="B25" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="68"/>
+    </row>
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="68"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="68" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="69" t="str">
+        <f>'Test Groups'!$A$5</f>
+        <v>1,2,3,4,5,7,8,9,11,12,13,15,16,17,18,20</v>
+      </c>
+      <c r="B31" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="69"/>
+      <c r="B32" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="F32" s="68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="69"/>
+      <c r="B33" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="F33" s="68"/>
+    </row>
+    <row r="34" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="69"/>
+      <c r="B34" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+    </row>
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="69"/>
+      <c r="B35" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="68" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="69"/>
+      <c r="B36" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+    </row>
+    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B37" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" s="68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B38" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" s="68"/>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="68" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B40" s="68" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="69" t="str">
+        <f>'Test Groups'!$A$6</f>
+        <v>1,2,3,4,5,7,8,9,11,12,13,15,17,19,20,21,22,23,24,35</v>
+      </c>
+      <c r="B43" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="D43" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="F43" s="68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="69"/>
+      <c r="B44" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="F44" s="68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="69"/>
+      <c r="B45" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="E45" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="F45" s="68" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="69"/>
+      <c r="B46" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C46" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+    </row>
+    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="69"/>
+      <c r="B47" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D47" s="68" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="69"/>
+      <c r="B48" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+    </row>
+    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B49" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B50" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" s="68" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="68" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="68" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="68" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A56" s="69" t="str">
+        <f>'Test Groups'!$A$7</f>
+        <v>1,2,3,4,5,7,8,9,11,12,13,15,17,19,20,21,22,23,25,26,27,35</v>
+      </c>
+      <c r="B56" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C56" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="F56" s="68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="69"/>
+      <c r="B57" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="D57" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="F57" s="68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="69"/>
+      <c r="B58" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="D58" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="E58" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="F58" s="68" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="69"/>
+      <c r="B59" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="D59" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="69"/>
+      <c r="B60" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C60" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D60" s="68" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="69"/>
+      <c r="B61" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="C61" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D61" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+    </row>
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B62" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C62" s="68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B63" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="D63" s="68" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B64" s="68" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="68" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B66" s="68" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B67" s="68" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="69" t="str">
+        <f>'Test Groups'!$A$8</f>
+        <v>1,2,3,4,5,7,8,9,11,12,13,15,17,19,20,21,22,23,25,26,28,30,</v>
+      </c>
+      <c r="B70" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="E70" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="F70" s="68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A71" s="69"/>
+      <c r="B71" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="E71" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="F71" s="68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="69"/>
+      <c r="B72" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="E72" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="F72" s="68" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="69"/>
+      <c r="B73" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="E73" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="F73" s="68" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="69"/>
+      <c r="B74" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D74" s="68" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="69"/>
+      <c r="B75" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D75" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="E75" s="68"/>
+      <c r="F75" s="68"/>
+    </row>
+    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B76" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" s="68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B77" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C77" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="D77" s="68" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B78" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="C78" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="D78" s="68" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79" s="68" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B80" s="68" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B81" s="68" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82" s="68" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B83" s="68" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="68"/>
+    </row>
+    <row r="86" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="69" t="str">
+        <f>'Test Groups'!$A$9</f>
+        <v>1,2,3,4,5,7,8,9,11,12,13,15,17,19,20,21,22,23,25,26,28,30,31</v>
+      </c>
+      <c r="B86" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C86" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="D86" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="E86" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="F86" s="68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="69"/>
+      <c r="B87" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="D87" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="E87" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="F87" s="68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="69"/>
+      <c r="B88" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="D88" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="E88" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="F88" s="68" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="69"/>
+      <c r="B89" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="D89" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="E89" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="F89" s="68" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="69"/>
+      <c r="B90" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D90" s="68" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="69"/>
+      <c r="B91" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D91" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="E91" s="68"/>
+      <c r="F91" s="68"/>
+    </row>
+    <row r="92" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B92" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C92" s="68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B93" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C93" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="D93" s="68" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B94" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="C94" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="D94" s="68" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B95" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="C95" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="D95" s="68" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B96" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="C96" s="68" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B97" s="68" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B98" s="68" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B99" s="68" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B100" s="68" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103" s="69" t="str">
+        <f>'Test Groups'!$A$10</f>
+        <v>1,2,3,4,5,7,8,9,11,12,13,15,17,19,20,21,32,33,34,35</v>
+      </c>
+      <c r="B103" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="D103" s="68" t="s">
+        <v>197</v>
+      </c>
+      <c r="E103" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="F103" s="68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="69"/>
+      <c r="B104" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" s="68" t="s">
+        <v>199</v>
+      </c>
+      <c r="D104" s="68" t="s">
+        <v>200</v>
+      </c>
+      <c r="E104" s="68" t="s">
+        <v>214</v>
+      </c>
+      <c r="F104" s="68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105" s="69"/>
+      <c r="B105" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C105" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="D105" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="E105" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="F105" s="68" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="69"/>
+      <c r="B106" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C106" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="D106" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="E106" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="F106" s="68" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="69"/>
+      <c r="B107" s="67" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D107" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="E107" s="68" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="69"/>
+      <c r="B108" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="D108" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="E108" s="68"/>
+      <c r="F108" s="68"/>
+    </row>
+    <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B109" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C109" s="68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B110" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C110" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="D110" s="68" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B111" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="D111" s="68" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B112" s="68" t="s">
+        <v>229</v>
+      </c>
+      <c r="C112" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="D112" s="68" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B113" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="C113" s="68" t="s">
+        <v>242</v>
+      </c>
+      <c r="D113" s="68" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B114" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="C114" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="D114" s="68" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B115" s="68" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B116" s="68" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B117" s="68" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B118" s="68" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B119" s="68" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="62.42578125" customWidth="1"/>
-    <col min="3" max="3" width="186.42578125" customWidth="1"/>
+    <col min="3" max="3" width="195.85546875" customWidth="1"/>
     <col min="5" max="5" width="105.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="56"/>
+      <c r="A1" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="61"/>
       <c r="C1" s="35" t="s">
         <v>30</v>
       </c>
@@ -2165,89 +3659,111 @@
       <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="57"/>
+      <c r="A2" s="62" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="62"/>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="54"/>
-      <c r="C5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="54"/>
-      <c r="C6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+      <c r="A3" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="68" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="68" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="68" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>175</v>
+      </c>
       <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-    </row>
-    <row r="8" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-    </row>
-    <row r="9" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
+      <c r="C7" s="68" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="63"/>
+      <c r="C8" s="68" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="63"/>
+      <c r="C9" s="68" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="63"/>
+      <c r="C10" s="68" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A10:B10"/>
+  <mergeCells count="11">
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
